--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>24429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1400</v>
+        <v>1221</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44363</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
         <v>22000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2367,13 +2367,13 @@
         <v>200</v>
       </c>
       <c r="N25" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O25" t="n">
         <v>20000</v>
       </c>
-      <c r="O25" t="n">
-        <v>21000</v>
-      </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44284</v>
+        <v>44270</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,31 +2444,191 @@
         </is>
       </c>
       <c r="M26" t="n">
+        <v>50</v>
+      </c>
+      <c r="N26" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>200</v>
+      </c>
+      <c r="N27" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>40</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N28" t="n">
         <v>23000</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O28" t="n">
         <v>23000</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P28" t="n">
         <v>23000</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="S28" t="n">
         <v>1150</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T28" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>21556</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44431</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44277</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
         <v>24000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
         <v>22000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>200</v>
       </c>
       <c r="N27" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O27" t="n">
         <v>20000</v>
       </c>
-      <c r="O27" t="n">
-        <v>21000</v>
-      </c>
       <c r="P27" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,68 +2567,228 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>50</v>
+      </c>
+      <c r="N28" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>200</v>
+      </c>
+      <c r="N29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E28" t="n">
-        <v>13</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M30" t="n">
         <v>40</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N30" t="n">
         <v>23000</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O30" t="n">
         <v>23000</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P30" t="n">
         <v>23000</v>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S28" t="n">
+      <c r="S30" t="n">
         <v>1150</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T30" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44350</v>
+        <v>44438</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
         <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>21556</v>
+        <v>21000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
         <v>24000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,68 +2727,148 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>200</v>
+      </c>
+      <c r="N30" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E30" t="n">
-        <v>13</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>40</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N31" t="n">
         <v>23000</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O31" t="n">
         <v>23000</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>23000</v>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S30" t="n">
+      <c r="S31" t="n">
         <v>1150</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T31" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44372</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20667</v>
+        <v>24429</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1033</v>
+        <v>1221</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44263</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44350</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44165</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>24429</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1221</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44298</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
         <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1075</v>
+        <v>1400</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44165</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
         <v>25000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44300</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44431</v>
+        <v>44312</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44438</v>
+        <v>44410</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>21556</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44417</v>
+        <v>44299</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44333</v>
+        <v>44300</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44365</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44263</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44417</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
         <v>24000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44355</v>
+        <v>44302</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O30" t="n">
         <v>20000</v>
       </c>
-      <c r="O30" t="n">
-        <v>21000</v>
-      </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44438</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,9 +2866,169 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="T31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>60</v>
+      </c>
+      <c r="N33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T33" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44263</v>
+        <v>44452</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>21429</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>750</v>
+        <v>1071</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44417</v>
+        <v>44263</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44302</v>
+        <v>44417</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44438</v>
+        <v>44302</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,68 +2967,148 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>30</v>
+      </c>
+      <c r="N33" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E33" t="n">
-        <v>13</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M34" t="n">
         <v>60</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N34" t="n">
         <v>25000</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O34" t="n">
         <v>25000</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>25000</v>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S33" t="n">
+      <c r="S34" t="n">
         <v>1250</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T34" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44356</v>
+        <v>44396</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44431</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44298</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
         <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44263</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44165</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44284</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44431</v>
+        <v>44417</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O18" t="n">
         <v>20000</v>
       </c>
-      <c r="O18" t="n">
-        <v>21000</v>
-      </c>
       <c r="P18" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44372</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20667</v>
+        <v>21429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1033</v>
+        <v>1071</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44442</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>21556</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44396</v>
+        <v>44165</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44452</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44263</v>
+        <v>44438</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44372</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44302</v>
+        <v>44356</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44438</v>
+        <v>44365</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
         <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44442</v>
+        <v>44357</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
         <v>25000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44431</v>
+        <v>44396</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44431</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44263</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44263</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44300</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
         <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44354</v>
+        <v>44442</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
         <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
         <v>21000</v>
@@ -2133,7 +2133,7 @@
         <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>21556</v>
+        <v>21500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44165</v>
+        <v>44350</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>27500</v>
+        <v>21556</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1375</v>
+        <v>1078</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44270</v>
+        <v>44165</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2367,13 +2367,13 @@
         <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44312</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44363</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>21500</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1075</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
         <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>20667</v>
+        <v>21000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
         <v>20000</v>
@@ -2853,7 +2853,7 @@
         <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
         <v>20000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
         <v>20000</v>
@@ -3047,68 +3047,148 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>200</v>
+      </c>
+      <c r="N34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44410</v>
       </c>
-      <c r="E34" t="n">
-        <v>13</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>40</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N35" t="n">
         <v>25000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O35" t="n">
         <v>25000</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>25000</v>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
         <v>1250</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T35" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44442</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44354</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44396</v>
+        <v>44302</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44299</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
         <v>19000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44263</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44298</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>24429</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1221</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44284</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1150</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,13 +1727,13 @@
         <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
         <v>24000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44445</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
         <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44165</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>21429</v>
+        <v>27500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1071</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44442</v>
+        <v>44300</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44354</v>
+        <v>44372</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O22" t="n">
         <v>21000</v>
       </c>
-      <c r="O22" t="n">
-        <v>22000</v>
-      </c>
       <c r="P22" t="n">
-        <v>21500</v>
+        <v>20667</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1075</v>
+        <v>1033</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44165</v>
+        <v>44452</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>27500</v>
+        <v>21429</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1375</v>
+        <v>1071</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44312</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44263</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44357</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44438</v>
+        <v>44298</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44372</v>
+        <v>44333</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44356</v>
+        <v>44270</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
         <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44357</v>
+        <v>44312</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3167,13 +3167,13 @@
         <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44263</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
         <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44354</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>24429</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44302</v>
+        <v>44363</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44431</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44299</v>
+        <v>44410</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44365</v>
+        <v>44431</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44417</v>
+        <v>44365</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44165</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>24429</v>
+        <v>27500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1221</v>
+        <v>1375</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
         <v>19000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44298</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44284</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44165</v>
+        <v>44354</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>1075</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44300</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44372</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
         <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>21429</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44442</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44263</v>
+        <v>44372</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>20667</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>750</v>
+        <v>1033</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44363</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44333</v>
+        <v>44356</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
         <v>24000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44438</v>
+        <v>44165</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1050</v>
+        <v>1375</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44365</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44363</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1050</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44431</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44365</v>
+        <v>44298</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N11" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O11" t="n">
         <v>20000</v>
       </c>
-      <c r="O11" t="n">
-        <v>21000</v>
-      </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44277</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1375</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44300</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44382</v>
+        <v>44357</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44333</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44298</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44284</v>
+        <v>44302</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44354</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
         <v>21000</v>
@@ -1973,7 +1973,7 @@
         <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>21429</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44300</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44350</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44396</v>
+        <v>44445</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44357</v>
+        <v>44270</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44442</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
         <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O27" t="n">
         <v>20000</v>
       </c>
-      <c r="O27" t="n">
-        <v>21000</v>
-      </c>
       <c r="P27" t="n">
-        <v>20667</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44372</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44431</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44356</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>20500</v>
+        <v>21556</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44473</v>
+        <v>44312</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
         <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
         <v>24000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44302</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,68 +3127,148 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>40</v>
+      </c>
+      <c r="N35" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="E35" t="n">
-        <v>13</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>120</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N36" t="n">
         <v>28000</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O36" t="n">
         <v>28000</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P36" t="n">
         <v>28000</v>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
         <v>1400</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T36" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44270</v>
+        <v>44445</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O28" t="n">
         <v>20000</v>
       </c>
-      <c r="O28" t="n">
-        <v>21000</v>
-      </c>
       <c r="P28" t="n">
-        <v>20667</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44431</v>
+        <v>44372</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44431</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44350</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P31" t="n">
-        <v>21556</v>
+        <v>23000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
         <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,68 +3207,148 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>40</v>
+      </c>
+      <c r="N36" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="E36" t="n">
-        <v>13</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>120</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N37" t="n">
         <v>28000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O37" t="n">
         <v>28000</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P37" t="n">
         <v>28000</v>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
         <v>1400</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T37" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24429</v>
+        <v>21429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1221</v>
+        <v>1071</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44165</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44263</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44302</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O6" t="n">
         <v>20000</v>
       </c>
-      <c r="O6" t="n">
-        <v>21000</v>
-      </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44442</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
         <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44438</v>
+        <v>44365</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
         <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44277</v>
+        <v>44165</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44442</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
         <v>22000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
         <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44302</v>
+        <v>44263</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44355</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O20" t="n">
         <v>21000</v>
       </c>
-      <c r="O20" t="n">
-        <v>22000</v>
-      </c>
       <c r="P20" t="n">
-        <v>21429</v>
+        <v>20500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1071</v>
+        <v>1025</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44300</v>
+        <v>44529</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44284</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44417</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44445</v>
+        <v>44298</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
         <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44270</v>
+        <v>44357</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44363</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P27" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44445</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
         <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44372</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>20667</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1033</v>
+        <v>1400</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44431</v>
+        <v>44522</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N31" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44299</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
         <v>19000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44522</v>
+        <v>44372</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>20667</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>1033</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44424</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>24429</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>1221</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44452</v>
+        <v>44522</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>21429</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -773,7 +773,7 @@
         <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44410</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44365</v>
+        <v>44438</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
         <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44410</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44431</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44442</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
         <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44363</v>
+        <v>44284</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44300</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44263</v>
+        <v>44431</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44277</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
         <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44529</v>
+        <v>44354</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1400</v>
+        <v>1075</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44298</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44357</v>
+        <v>44165</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>27500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>1375</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44263</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44445</v>
+        <v>44396</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44298</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44300</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>19500</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>975</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44299</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44372</v>
+        <v>44302</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O35" t="n">
         <v>20000</v>
       </c>
-      <c r="O35" t="n">
-        <v>21000</v>
-      </c>
       <c r="P35" t="n">
-        <v>20667</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O36" t="n">
         <v>21000</v>
       </c>
-      <c r="O36" t="n">
-        <v>22000</v>
-      </c>
       <c r="P36" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44424</v>
+        <v>44365</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44372</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44270</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
         <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44438</v>
+        <v>44165</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1050</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44333</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44442</v>
+        <v>44263</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1075</v>
+        <v>1400</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44284</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44300</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44302</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
         <v>19000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44431</v>
+        <v>44284</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44354</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44350</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44372</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2367,13 +2367,13 @@
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44165</v>
+        <v>44299</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44263</v>
+        <v>44438</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O29" t="n">
         <v>21000</v>
       </c>
-      <c r="O29" t="n">
-        <v>22000</v>
-      </c>
       <c r="P29" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44529</v>
+        <v>44452</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>21429</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1400</v>
+        <v>1071</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44298</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
         <v>24000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44445</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44302</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44357</v>
+        <v>44354</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44365</v>
+        <v>44312</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44522</v>
+        <v>44365</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44270</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44263</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44165</v>
+        <v>44473</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1375</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44298</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44263</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44165</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>27500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44302</v>
+        <v>44350</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44284</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44356</v>
+        <v>44410</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44452</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>21429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>1071</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44300</v>
+        <v>44431</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44350</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>21556</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1078</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44372</v>
+        <v>44442</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44299</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44431</v>
+        <v>44396</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44357</v>
+        <v>44354</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44452</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44298</v>
+        <v>44438</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44445</v>
+        <v>44300</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
         <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44365</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1150</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44372</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>24429</v>
+        <v>20667</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1221</v>
+        <v>1033</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44165</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44270</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44263</v>
+        <v>44417</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44298</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
         <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44298</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44263</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
         <v>22000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
         <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44363</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44356</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44452</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44445</v>
+        <v>44431</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44396</v>
+        <v>44365</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44354</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44357</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2767,13 +2767,13 @@
         <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44372</v>
+        <v>44445</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
         <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>20667</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44438</v>
+        <v>44355</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
         <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
         <v>22000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44312</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44299</v>
+        <v>44522</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44302</v>
+        <v>44277</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44165</v>
+        <v>44613</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44270</v>
+        <v>44165</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>24000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>24429</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1221</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44424</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
         <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>24429</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44263</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44263</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44442</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
         <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44363</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
         <v>21000</v>
@@ -1893,7 +1893,7 @@
         <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>21429</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
         <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44302</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2127,13 +2127,13 @@
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44438</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44300</v>
+        <v>44438</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44431</v>
+        <v>44300</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44365</v>
+        <v>44431</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44365</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44357</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44445</v>
+        <v>44357</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
         <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44355</v>
+        <v>44445</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
         <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44396</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,68 +3287,148 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
+        <v>44522</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>25</v>
+      </c>
+      <c r="N37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>44277</v>
       </c>
-      <c r="E37" t="n">
-        <v>13</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>60</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N38" t="n">
         <v>24000</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O38" t="n">
         <v>24000</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>24000</v>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
         <v>1200</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T38" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44620</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>24000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44424</v>
+        <v>44298</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>24429</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1221</v>
+        <v>975</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
         <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>24429</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44263</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44263</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
         <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44529</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
         <v>21000</v>
@@ -1973,7 +1973,7 @@
         <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>21429</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
         <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44302</v>
+        <v>44356</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44438</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44300</v>
+        <v>44438</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44431</v>
+        <v>44300</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44365</v>
+        <v>44431</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>44365</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44357</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44445</v>
+        <v>44357</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
         <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
         <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44355</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,68 +3367,148 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>44522</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>44277</v>
       </c>
-      <c r="E38" t="n">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>60</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N39" t="n">
         <v>24000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O39" t="n">
         <v>24000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P39" t="n">
         <v>24000</v>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
         <v>1200</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T39" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44372</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -613,7 +613,7 @@
         <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44613</v>
+        <v>44300</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44165</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44620</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44417</v>
+        <v>44620</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44298</v>
+        <v>44263</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44522</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44263</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44613</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
         <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
         <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44452</v>
+        <v>44166</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>21429</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1071</v>
+        <v>1400</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44302</v>
+        <v>44355</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44165</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44299</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44438</v>
+        <v>44365</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
         <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44431</v>
+        <v>44298</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44365</v>
+        <v>44277</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44357</v>
+        <v>44529</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>200</v>
       </c>
       <c r="N34" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O34" t="n">
         <v>20000</v>
       </c>
-      <c r="O34" t="n">
-        <v>21000</v>
-      </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44270</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44299</v>
+        <v>44354</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44312</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44372</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44396</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44263</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44431</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21556</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44300</v>
+        <v>44529</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
         <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
         <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44620</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44263</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44300</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44452</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>21429</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44442</v>
+        <v>44298</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44284</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44166</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>24429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1400</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44302</v>
+        <v>44442</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
         <v>22000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44355</v>
+        <v>44365</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
         <v>20000</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44165</v>
+        <v>44305</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1375</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44365</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
         <v>20000</v>
@@ -2613,7 +2613,7 @@
         <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44298</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>21429</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1071</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44529</v>
+        <v>44620</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44473</v>
+        <v>44165</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
         <v>24000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44372</v>
+        <v>44435</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>20667</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44263</v>
+        <v>44354</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44431</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44529</v>
+        <v>44365</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
         <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44417</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44263</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44613</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44363</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>21000</v>
@@ -1253,7 +1253,7 @@
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>21556</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44270</v>
+        <v>44620</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44300</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>20667</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44613</v>
+        <v>44165</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44298</v>
+        <v>44270</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44277</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44365</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44305</v>
+        <v>44417</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
         <v>24000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>200</v>
       </c>
       <c r="N26" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O26" t="n">
         <v>20000</v>
       </c>
-      <c r="O26" t="n">
-        <v>21000</v>
-      </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44372</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>20667</v>
+        <v>24429</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1033</v>
+        <v>1221</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44452</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
         <v>21000</v>
@@ -2693,7 +2693,7 @@
         <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>21429</v>
+        <v>21556</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44620</v>
+        <v>44442</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
         <v>22000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44165</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>27500</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44473</v>
+        <v>44284</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3167,13 +3167,13 @@
         <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
         <v>25000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44438</v>
+        <v>44357</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
         <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
         <v>25000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44445</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44165</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44452</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44365</v>
+        <v>44442</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44438</v>
+        <v>44263</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44263</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>24000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44613</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>20667</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1033</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44363</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44620</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
         <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
         <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>20667</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44165</v>
+        <v>44613</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44396</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
         <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44522</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>21429</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>20000</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
         <v>22000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44417</v>
+        <v>44620</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44382</v>
+        <v>44298</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N26" t="n">
         <v>19000</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>24429</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1221</v>
+        <v>1400</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O29" t="n">
         <v>21000</v>
       </c>
-      <c r="O29" t="n">
-        <v>22000</v>
-      </c>
       <c r="P29" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44299</v>
+        <v>44424</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>24429</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1221</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44435</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44302</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
         <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44284</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O37" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P37" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
         <v>20000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44305</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44445</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44165</v>
+        <v>44522</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44452</v>
+        <v>44299</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44442</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44263</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44613</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>21556</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1078</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1173,7 +1173,7 @@
         <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44438</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44302</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44438</v>
+        <v>44529</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44613</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>21556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1078</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44431</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44452</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44300</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44355</v>
+        <v>44620</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44298</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N23" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O23" t="n">
         <v>20000</v>
       </c>
-      <c r="O23" t="n">
-        <v>21000</v>
-      </c>
       <c r="P23" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44620</v>
+        <v>44410</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
         <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44363</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>24429</v>
+        <v>21500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44302</v>
+        <v>44365</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44417</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44284</v>
+        <v>44165</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="O37" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1150</v>
+        <v>1375</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44365</v>
+        <v>44263</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44305</v>
+        <v>44442</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1050</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44522</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20667</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44473</v>
+        <v>44442</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44613</v>
+        <v>44165</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44270</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44438</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44302</v>
+        <v>44357</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44452</v>
+        <v>44365</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O17" t="n">
         <v>21000</v>
       </c>
-      <c r="O17" t="n">
-        <v>22000</v>
-      </c>
       <c r="P17" t="n">
-        <v>21429</v>
+        <v>20500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1071</v>
+        <v>1025</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44300</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44356</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
         <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44302</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>24429</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1221</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44620</v>
+        <v>44396</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
         <v>22000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44298</v>
+        <v>44350</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44354</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>21500</v>
+        <v>24429</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44417</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44357</v>
+        <v>44300</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O29" t="n">
         <v>20000</v>
       </c>
-      <c r="O29" t="n">
-        <v>21000</v>
-      </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>21500</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1075</v>
+        <v>750</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44529</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="N31" t="n">
         <v>28000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44372</v>
+        <v>44277</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P32" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44365</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44445</v>
+        <v>44354</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44417</v>
+        <v>44431</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44165</v>
+        <v>44299</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44263</v>
+        <v>44363</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44442</v>
+        <v>44620</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44620</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44613</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44372</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20667</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1033</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44442</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44442</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>22000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44165</v>
+        <v>44372</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>27500</v>
+        <v>20667</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1375</v>
+        <v>1033</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>24000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44270</v>
+        <v>44363</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44357</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44357</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O12" t="n">
         <v>20000</v>
       </c>
-      <c r="O12" t="n">
-        <v>21000</v>
-      </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44263</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44613</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>24429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44365</v>
+        <v>44431</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44356</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44302</v>
+        <v>44356</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44396</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
         <v>22000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44350</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
         <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>44302</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>24429</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1221</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44417</v>
+        <v>44365</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44300</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
         <v>19000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44263</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44277</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>24000</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44354</v>
+        <v>44165</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44363</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44620</v>
+        <v>44300</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44620</v>
+        <v>44300</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44613</v>
+        <v>44522</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>30000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>24429</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1150</v>
+        <v>1221</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44442</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44372</v>
+        <v>44417</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
         <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>150</v>
       </c>
       <c r="N10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O10" t="n">
         <v>21000</v>
       </c>
-      <c r="O10" t="n">
-        <v>22000</v>
-      </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44357</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44263</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44445</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44363</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>24429</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44165</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>27500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1375</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44613</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44438</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44356</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44298</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
         <v>22000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44263</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44417</v>
+        <v>44356</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44410</v>
+        <v>44350</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44302</v>
+        <v>44452</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>21429</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1071</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O28" t="n">
         <v>20000</v>
       </c>
-      <c r="O28" t="n">
-        <v>21000</v>
-      </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44529</v>
+        <v>44299</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44372</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O32" t="n">
         <v>21000</v>
       </c>
-      <c r="O32" t="n">
-        <v>22000</v>
-      </c>
       <c r="P32" t="n">
-        <v>21429</v>
+        <v>20667</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44473</v>
+        <v>44302</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44165</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P34" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44473</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44270</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
         <v>24000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
         <v>22000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44620</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44300</v>
+        <v>44442</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44300</v>
+        <v>44522</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44522</v>
+        <v>44263</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44417</v>
+        <v>44299</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>21556</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>1078</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44452</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>21429</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44445</v>
+        <v>44620</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44363</v>
+        <v>44357</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O16" t="n">
         <v>21000</v>
       </c>
-      <c r="O16" t="n">
-        <v>22000</v>
-      </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44613</v>
+        <v>44410</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
         <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>20667</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44438</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44298</v>
+        <v>44363</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44396</v>
+        <v>44435</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44263</v>
+        <v>44300</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44356</v>
+        <v>44298</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N25" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O25" t="n">
         <v>20000</v>
       </c>
-      <c r="O25" t="n">
-        <v>21000</v>
-      </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44452</v>
+        <v>44613</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>21429</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1071</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44417</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44357</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2767,13 +2767,13 @@
         <v>200</v>
       </c>
       <c r="N30" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O30" t="n">
         <v>20000</v>
       </c>
-      <c r="O30" t="n">
-        <v>21000</v>
-      </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44372</v>
+        <v>44431</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>20667</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44302</v>
+        <v>44354</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N34" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44473</v>
+        <v>44445</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44270</v>
+        <v>44355</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44326</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44620</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44442</v>
+        <v>44326</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44522</v>
+        <v>44165</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44263</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
         <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44442</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44299</v>
+        <v>44522</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44350</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44284</v>
+        <v>44620</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44452</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O12" t="n">
         <v>21000</v>
       </c>
-      <c r="O12" t="n">
-        <v>22000</v>
-      </c>
       <c r="P12" t="n">
-        <v>21429</v>
+        <v>20667</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44277</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
         <v>24000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44620</v>
+        <v>44299</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44760</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44165</v>
+        <v>44270</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1375</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44410</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44445</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>20667</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44438</v>
+        <v>44302</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44363</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44312</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44300</v>
+        <v>44396</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44298</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44613</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44312</v>
+        <v>44431</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44417</v>
+        <v>44263</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O31" t="n">
         <v>20000</v>
       </c>
-      <c r="O31" t="n">
-        <v>21000</v>
-      </c>
       <c r="P31" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44354</v>
+        <v>44417</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
         <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>24429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
         <v>20000</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S36" t="n">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44298</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44357</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,9 +3506,89 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>200</v>
+      </c>
+      <c r="N40" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T40" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44363</v>
+        <v>44522</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44442</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44300</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44522</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44620</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44620</v>
+        <v>44760</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44299</v>
+        <v>44445</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
         <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44760</v>
+        <v>44372</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>24500</v>
+        <v>20667</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1225</v>
+        <v>1033</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44613</v>
+        <v>44424</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>24429</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1221</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
         <v>24000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44613</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>21556</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1078</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44445</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>21556</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44302</v>
+        <v>44299</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
         <v>19000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44312</v>
+        <v>44363</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
         <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
         <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44298</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44431</v>
+        <v>44357</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44263</v>
+        <v>44270</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44365</v>
+        <v>44302</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O30" t="n">
         <v>20000</v>
       </c>
-      <c r="O30" t="n">
-        <v>21000</v>
-      </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
         <v>19000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44431</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44417</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44354</v>
+        <v>44442</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
         <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44424</v>
+        <v>44365</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44356</v>
+        <v>44263</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44298</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44357</v>
+        <v>44435</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44438</v>
+        <v>44452</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
         <v>21000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>21000</v>
+        <v>21429</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="N40" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O40" t="n">
         <v>20000</v>
       </c>
-      <c r="O40" t="n">
-        <v>21000</v>
-      </c>
       <c r="P40" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44165</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44522</v>
+        <v>44431</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44298</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
         <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44620</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
         <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44760</v>
+        <v>44302</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1225</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>24429</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44372</v>
+        <v>44760</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20667</v>
+        <v>24500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1033</v>
+        <v>1225</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44365</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44424</v>
+        <v>44270</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
         <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44613</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44165</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>21556</v>
+        <v>27500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1078</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44299</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44300</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44363</v>
+        <v>44277</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44298</v>
+        <v>44613</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44263</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44357</v>
+        <v>44396</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44417</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
         <v>24000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44302</v>
+        <v>44166</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44435</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44431</v>
+        <v>44620</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44438</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
         <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O35" t="n">
         <v>20000</v>
       </c>
-      <c r="O35" t="n">
-        <v>21000</v>
-      </c>
       <c r="P35" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44263</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44356</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44452</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44299</v>
+        <v>44830</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44613</v>
+        <v>44299</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44613</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44263</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44396</v>
+        <v>44263</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44166</v>
+        <v>44417</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44620</v>
+        <v>44435</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44438</v>
+        <v>44620</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44442</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44357</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,68 +3527,148 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>40</v>
+      </c>
+      <c r="N40" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>44355</v>
       </c>
-      <c r="E40" t="n">
-        <v>13</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>200</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N41" t="n">
         <v>20000</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O41" t="n">
         <v>21000</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P41" t="n">
         <v>20500</v>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="S41" t="n">
         <v>1025</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T41" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44431</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44270</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44298</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44442</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
         <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44302</v>
+        <v>44410</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44354</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44424</v>
+        <v>44830</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>24429</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1221</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44760</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
         <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P15" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44365</v>
+        <v>44354</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44438</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44365</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44165</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>27500</v>
+        <v>21556</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>1078</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44613</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44300</v>
+        <v>44355</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44277</v>
+        <v>44356</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44830</v>
+        <v>44277</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44299</v>
+        <v>44165</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44613</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44263</v>
+        <v>44529</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
         <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44435</v>
+        <v>44300</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44620</v>
+        <v>44760</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44442</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44620</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44357</v>
+        <v>44263</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
         <v>20000</v>
@@ -3653,7 +3653,7 @@
         <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44529</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44298</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44442</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44830</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44830</v>
+        <v>44452</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>21429</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1071</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44302</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>24429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
         <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44365</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44613</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>21556</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1078</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44613</v>
+        <v>44760</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>1225</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44355</v>
+        <v>44620</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44356</v>
+        <v>44382</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O23" t="n">
         <v>20000</v>
       </c>
-      <c r="O23" t="n">
-        <v>21000</v>
-      </c>
       <c r="P23" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
         <v>24000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44165</v>
+        <v>44284</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P25" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44357</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O26" t="n">
         <v>21000</v>
       </c>
-      <c r="O26" t="n">
-        <v>22000</v>
-      </c>
       <c r="P26" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44300</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44529</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44452</v>
+        <v>44445</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>21429</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44333</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44522</v>
+        <v>44442</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44300</v>
+        <v>44165</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44760</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
         <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44372</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>20667</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44431</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44522</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44620</v>
+        <v>44298</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44263</v>
+        <v>44365</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>150</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44357</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44372</v>
+        <v>44263</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>20667</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1033</v>
+        <v>750</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44270</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44431</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44396</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
         <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44830</v>
+        <v>44165</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44452</v>
+        <v>44263</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>21429</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44302</v>
+        <v>44357</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44363</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>21556</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44613</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44613</v>
+        <v>44442</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44760</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
@@ -2053,7 +2053,7 @@
         <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>24500</v>
+        <v>24429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44620</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44382</v>
+        <v>44299</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
         <v>19000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44473</v>
+        <v>44312</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44284</v>
+        <v>44350</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N25" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>23000</v>
+        <v>21556</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1150</v>
+        <v>1078</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44357</v>
+        <v>44522</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44300</v>
+        <v>44396</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44760</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>1225</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44445</v>
+        <v>44363</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44333</v>
+        <v>44356</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44442</v>
+        <v>44372</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44165</v>
+        <v>44365</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44372</v>
+        <v>44830</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>20667</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1033</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44300</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44298</v>
+        <v>44452</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>21429</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1071</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N38" t="n">
         <v>19000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44365</v>
+        <v>44417</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44417</v>
+        <v>44620</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44263</v>
+        <v>44438</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44372</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44473</v>
+        <v>44620</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44270</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44431</v>
+        <v>44300</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44165</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44263</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44357</v>
+        <v>44830</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44760</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
         <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44613</v>
+        <v>44284</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44442</v>
+        <v>44417</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,13 +1967,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44522</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>24429</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1221</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44299</v>
+        <v>44277</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44312</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O25" t="n">
         <v>21000</v>
       </c>
-      <c r="O25" t="n">
-        <v>22000</v>
-      </c>
       <c r="P25" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44522</v>
+        <v>44445</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44760</v>
+        <v>44442</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44363</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1075</v>
+        <v>1400</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44356</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44372</v>
+        <v>44263</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>20667</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1033</v>
+        <v>750</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44830</v>
+        <v>44270</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44300</v>
+        <v>44452</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>21429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1071</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44284</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44452</v>
+        <v>44299</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44298</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
         <v>19000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44417</v>
+        <v>44613</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44620</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
         <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44438</v>
+        <v>44357</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
         <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44473</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44372</v>
+        <v>44365</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -693,7 +693,7 @@
         <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44620</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44300</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44363</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44165</v>
+        <v>44410</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44365</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1150</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44620</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44431</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O13" t="n">
         <v>20000</v>
       </c>
-      <c r="O13" t="n">
-        <v>21000</v>
-      </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44830</v>
+        <v>44355</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44760</v>
+        <v>44270</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
         <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44442</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44284</v>
+        <v>44165</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1150</v>
+        <v>1375</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44522</v>
+        <v>44372</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>20667</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>1033</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44302</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44473</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44355</v>
+        <v>44312</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>24429</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44410</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44442</v>
+        <v>44263</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44263</v>
+        <v>44300</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44363</v>
+        <v>44613</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44438</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44302</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44452</v>
+        <v>44760</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>21429</v>
+        <v>24500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1071</v>
+        <v>1225</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44452</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>21429</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N37" t="n">
         <v>19000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44830</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44613</v>
+        <v>44277</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44350</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -693,7 +693,7 @@
         <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44620</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44300</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44410</v>
+        <v>44165</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44620</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44431</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>21556</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44830</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44760</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
         <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44442</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44284</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P19" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44522</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>20667</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1033</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44473</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44312</v>
+        <v>44355</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44424</v>
+        <v>44445</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>24429</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1221</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44410</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44263</v>
+        <v>44442</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44263</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44613</v>
+        <v>44363</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44438</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44302</v>
+        <v>44270</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44760</v>
+        <v>44452</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>24500</v>
+        <v>21429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1225</v>
+        <v>1071</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44452</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
         <v>19000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44830</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44613</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44298</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44365</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44350</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
         <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44396</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44410</v>
+        <v>44372</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44263</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1150</v>
+        <v>750</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44620</v>
+        <v>44363</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44431</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
         <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
         <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44830</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1375</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44431</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44365</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2053,7 +2053,7 @@
         <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44522</v>
+        <v>44760</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>1225</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44473</v>
+        <v>44613</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
         <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44284</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44263</v>
+        <v>44620</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44445</v>
+        <v>44355</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
         <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44299</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44165</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44613</v>
+        <v>44356</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44302</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44760</v>
+        <v>44445</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1225</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44452</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>21429</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1071</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
         <v>19000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44830</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44302</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
         <v>19000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44356</v>
+        <v>44442</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>25000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44363</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
         <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44350</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
         <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44396</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44760</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44452</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20667</v>
+        <v>21429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1033</v>
+        <v>1071</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44263</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44363</v>
+        <v>44298</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44263</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44357</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O15" t="n">
         <v>20000</v>
       </c>
-      <c r="O15" t="n">
-        <v>21000</v>
-      </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44452</v>
+        <v>44354</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
         <v>21000</v>
@@ -1813,7 +1813,7 @@
         <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>21429</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44830</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44431</v>
+        <v>44522</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44365</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
         <v>24000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44760</v>
+        <v>44613</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1225</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44613</v>
+        <v>44357</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44442</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44284</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44620</v>
+        <v>44410</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
         <v>20000</v>
@@ -2693,7 +2693,7 @@
         <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44299</v>
+        <v>44165</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44165</v>
+        <v>44620</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44356</v>
+        <v>44529</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1075</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44356</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
         <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44445</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>21556</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44333</v>
+        <v>44830</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44302</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44442</v>
+        <v>44396</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N41" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44431</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44620</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44372</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44760</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44438</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44452</v>
+        <v>44263</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>21429</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44365</v>
+        <v>44417</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44298</v>
+        <v>44410</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44302</v>
+        <v>44357</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44263</v>
+        <v>44363</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44830</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44354</v>
+        <v>44277</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44522</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44299</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44613</v>
+        <v>44298</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44357</v>
+        <v>44452</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44284</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2367,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44442</v>
+        <v>44613</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44372</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>20667</v>
+        <v>24429</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1033</v>
+        <v>1221</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44165</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44620</v>
+        <v>44431</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44529</v>
+        <v>44760</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>24500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>1225</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>21556</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
         <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
         <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44300</v>
+        <v>44365</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P38" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44830</v>
+        <v>44356</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>24000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44396</v>
+        <v>44165</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44620</v>
+        <v>44452</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
         <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44372</v>
+        <v>44298</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N5" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O5" t="n">
         <v>20000</v>
       </c>
-      <c r="O5" t="n">
-        <v>21000</v>
-      </c>
       <c r="P5" t="n">
-        <v>20667</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44365</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44300</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
         <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44424</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>24429</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>1221</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44263</v>
+        <v>44522</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44357</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1333,7 +1333,7 @@
         <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44363</v>
+        <v>44354</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44830</v>
+        <v>44333</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44442</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44417</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44299</v>
+        <v>44396</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
         <v>24000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44298</v>
+        <v>44445</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
         <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44452</v>
+        <v>44357</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O24" t="n">
         <v>21000</v>
       </c>
-      <c r="O24" t="n">
-        <v>22000</v>
-      </c>
       <c r="P24" t="n">
-        <v>21429</v>
+        <v>20500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1071</v>
+        <v>1025</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44284</v>
+        <v>44830</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44613</v>
+        <v>44302</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44312</v>
+        <v>44613</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44263</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>24429</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1221</v>
+        <v>750</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44760</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>24500</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1225</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O33" t="n">
         <v>21000</v>
       </c>
-      <c r="O33" t="n">
-        <v>22000</v>
-      </c>
       <c r="P33" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
         <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>21556</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44442</v>
+        <v>44363</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
         <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44302</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44365</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44165</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
         <v>28000</v>
       </c>
       <c r="P38" t="n">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44356</v>
+        <v>44760</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1025</v>
+        <v>1225</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
         <v>24000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44165</v>
+        <v>44620</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44298</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44452</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44300</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44424</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44522</v>
+        <v>44431</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44620</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
         <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44442</v>
+        <v>44333</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44365</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44396</v>
+        <v>44165</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44270</v>
+        <v>44424</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
         <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44445</v>
+        <v>44372</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
         <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>20667</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44357</v>
+        <v>44613</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44830</v>
+        <v>44522</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
         <v>30000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44302</v>
+        <v>44350</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44354</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44613</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44263</v>
+        <v>44363</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44410</v>
+        <v>44529</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44830</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44356</v>
+        <v>44263</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44442</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44165</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44760</v>
+        <v>44445</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1225</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44760</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
         <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44620</v>
+        <v>44473</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44613</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44529</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44431</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44396</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44620</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44620</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44270</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44830</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44424</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>24429</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1221</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44410</v>
+        <v>44372</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
         <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44365</v>
+        <v>44410</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44302</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44431</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44165</v>
+        <v>44365</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
         <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44372</v>
+        <v>44357</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
         <v>20000</v>
@@ -2213,7 +2213,7 @@
         <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44613</v>
+        <v>44363</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44354</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
         <v>21000</v>
@@ -2533,7 +2533,7 @@
         <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>21500</v>
+        <v>21556</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44363</v>
+        <v>44445</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1075</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
         <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>21429</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44830</v>
+        <v>44442</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44263</v>
+        <v>44165</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>27500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44300</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3167,13 +3167,13 @@
         <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44263</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44442</v>
+        <v>44277</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44445</v>
+        <v>44298</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
         <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44473</v>
+        <v>44302</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44263</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>24000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44298</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44760</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44529</v>
+        <v>44830</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44522</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44620</v>
+        <v>44396</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44830</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44424</v>
+        <v>44372</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>24429</v>
+        <v>20667</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1221</v>
+        <v>1033</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44372</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44452</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44365</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44431</v>
+        <v>44312</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44365</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44363</v>
+        <v>44424</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>21500</v>
+        <v>24429</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
         <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44300</v>
+        <v>44613</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O27" t="n">
         <v>21000</v>
       </c>
-      <c r="O27" t="n">
-        <v>22000</v>
-      </c>
       <c r="P27" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44165</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44445</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
         <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44300</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44354</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
         <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44165</v>
+        <v>44363</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1375</v>
+        <v>1075</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44452</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>23000</v>
+        <v>21429</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1150</v>
+        <v>1071</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44355</v>
+        <v>44445</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
         <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44263</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>21556</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>750</v>
+        <v>1078</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O37" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44299</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44298</v>
+        <v>44417</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44760</v>
+        <v>44356</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1225</v>
+        <v>1025</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44302</v>
+        <v>44473</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44263</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44298</v>
+        <v>44166</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44620</v>
+        <v>44438</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44760</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44830</v>
+        <v>44431</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44431</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44396</v>
+        <v>44363</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44830</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44357</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>150</v>
       </c>
       <c r="N19" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O19" t="n">
         <v>20000</v>
       </c>
-      <c r="O19" t="n">
-        <v>21000</v>
-      </c>
       <c r="P19" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44263</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
         <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44424</v>
+        <v>44365</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44613</v>
+        <v>44357</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O27" t="n">
         <v>20000</v>
       </c>
-      <c r="O27" t="n">
-        <v>21000</v>
-      </c>
       <c r="P27" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44165</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44760</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1150</v>
+        <v>1225</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44529</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44354</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
         <v>21000</v>
@@ -2933,7 +2933,7 @@
         <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>21500</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44452</v>
+        <v>44165</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>21429</v>
+        <v>27500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1071</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>24429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1221</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O36" t="n">
         <v>21000</v>
       </c>
-      <c r="O36" t="n">
-        <v>22000</v>
-      </c>
       <c r="P36" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44410</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44277</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44417</v>
+        <v>44333</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44356</v>
+        <v>44620</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44473</v>
+        <v>44613</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44270</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44166</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44438</v>
+        <v>44452</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
         <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>21429</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44431</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44396</v>
+        <v>44263</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44613</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44363</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44830</v>
+        <v>44302</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44372</v>
+        <v>44410</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20667</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44760</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>975</v>
+        <v>1225</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44263</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O21" t="n">
         <v>21000</v>
       </c>
-      <c r="O21" t="n">
-        <v>22000</v>
-      </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44445</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44302</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44365</v>
+        <v>44417</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44312</v>
+        <v>44620</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
         <v>22000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44357</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44165</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1375</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44760</v>
+        <v>44438</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44529</v>
+        <v>44298</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44442</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
         <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>21429</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44522</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44165</v>
+        <v>44365</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
         <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>24429</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1221</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44355</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44356</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44333</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44620</v>
+        <v>44830</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44613</v>
+        <v>44333</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44166</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44438</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>21429</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44363</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44431</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44263</v>
+        <v>44396</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44613</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44302</v>
+        <v>44830</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44372</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44760</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1225</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44263</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>975</v>
+        <v>750</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44445</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44417</v>
+        <v>44365</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44620</v>
+        <v>44312</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
         <v>22000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44357</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44165</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44357</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44438</v>
+        <v>44760</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1050</v>
+        <v>1225</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44298</v>
+        <v>44529</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
         <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44365</v>
+        <v>44165</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>27500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1375</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44424</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
         <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>24429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44355</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44356</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44424</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>24429</v>
+        <v>21556</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1221</v>
+        <v>1078</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44830</v>
+        <v>44620</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44333</v>
+        <v>44613</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44270</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="O5" t="n">
-        <v>22000</v>
-      </c>
       <c r="P5" t="n">
-        <v>21429</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1071</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44363</v>
+        <v>44165</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44263</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44613</v>
+        <v>44300</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44357</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1333,7 +1333,7 @@
         <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44302</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44760</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
         <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44302</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44522</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44445</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
         <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44355</v>
+        <v>44452</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44613</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44417</v>
+        <v>44372</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44830</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44312</v>
+        <v>44442</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
         <v>22000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44165</v>
+        <v>44760</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1375</v>
+        <v>1225</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44357</v>
+        <v>44354</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44438</v>
+        <v>44355</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
         <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44382</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44263</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>21556</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44298</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44284</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44333</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
         <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44830</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44333</v>
+        <v>44365</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44363</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44438</v>
+        <v>44165</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1050</v>
+        <v>1375</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44356</v>
+        <v>44438</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
         <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44165</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44365</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>44830</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44431</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44529</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44396</v>
+        <v>44445</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44302</v>
+        <v>44372</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>20667</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44522</v>
+        <v>44302</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44363</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>24429</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44613</v>
+        <v>44312</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44372</v>
+        <v>44396</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44620</v>
+        <v>44760</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44830</v>
+        <v>44263</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44442</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44760</v>
+        <v>44522</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1225</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44354</v>
+        <v>44613</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44620</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44424</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>19500</v>
+        <v>24429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>975</v>
+        <v>1221</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44263</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>21556</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>750</v>
+        <v>1078</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44356</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O34" t="n">
         <v>21000</v>
       </c>
-      <c r="O34" t="n">
-        <v>22000</v>
-      </c>
       <c r="P34" t="n">
-        <v>21556</v>
+        <v>20500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44298</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="N35" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O37" t="n">
         <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44417</v>
+        <v>44298</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44305</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44365</v>
+        <v>44442</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>44442</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44613</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44830</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44410</v>
+        <v>44529</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44300</v>
+        <v>44396</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44830</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44431</v>
+        <v>44363</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>44760</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44445</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44372</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20667</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1033</v>
+        <v>1075</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44363</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
         <v>21000</v>
@@ -1893,7 +1893,7 @@
         <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>21556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44417</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,13 +1967,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
         <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>21429</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44312</v>
+        <v>44620</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
         <v>22000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44396</v>
+        <v>44445</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44760</v>
+        <v>44357</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1225</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44263</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44302</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44522</v>
+        <v>44300</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44613</v>
+        <v>44365</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44270</v>
+        <v>44312</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2767,13 +2767,13 @@
         <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44620</v>
+        <v>44299</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44424</v>
+        <v>44263</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>24429</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1221</v>
+        <v>750</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44431</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44298</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O37" t="n">
         <v>21000</v>
       </c>
-      <c r="O37" t="n">
-        <v>22000</v>
-      </c>
       <c r="P37" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44284</v>
+        <v>44424</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>23000</v>
+        <v>24429</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1150</v>
+        <v>1221</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44305</v>
+        <v>44438</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44442</v>
+        <v>44417</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3647,13 +3647,13 @@
         <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44442</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44165</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44166</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44613</v>
+        <v>44365</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44529</v>
+        <v>44830</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44396</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44830</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44363</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1150</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44760</v>
+        <v>44438</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1225</v>
+        <v>1050</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44522</v>
+        <v>44354</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44372</v>
+        <v>44613</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>20667</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1033</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44354</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44165</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>21556</v>
+        <v>27500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1078</v>
+        <v>1375</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44452</v>
+        <v>44263</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>21429</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44620</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44445</v>
+        <v>44350</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>21556</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44357</v>
+        <v>44522</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44410</v>
+        <v>44452</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44302</v>
+        <v>44442</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44300</v>
+        <v>44363</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44365</v>
+        <v>44298</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O29" t="n">
         <v>20000</v>
       </c>
-      <c r="O29" t="n">
-        <v>21000</v>
-      </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
         <v>22000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44263</v>
+        <v>44529</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44431</v>
+        <v>44620</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44298</v>
+        <v>44431</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         <v>200</v>
       </c>
       <c r="N37" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O37" t="n">
         <v>20000</v>
       </c>
-      <c r="O37" t="n">
-        <v>21000</v>
-      </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
         <v>24000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44424</v>
+        <v>44305</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
         <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44417</v>
+        <v>44300</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1150</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44442</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44165</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44613</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O8" t="n">
         <v>20000</v>
       </c>
-      <c r="O8" t="n">
-        <v>21000</v>
-      </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44830</v>
+        <v>44529</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44396</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44830</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44363</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1150</v>
+        <v>1075</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44438</v>
+        <v>44760</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1050</v>
+        <v>1225</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44613</v>
+        <v>44372</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>20667</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1033</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>27500</v>
+        <v>21556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1375</v>
+        <v>1078</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44263</v>
+        <v>44452</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>21429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>750</v>
+        <v>1071</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44302</v>
+        <v>44620</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44350</v>
+        <v>44445</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>21556</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1078</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44357</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44452</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>21429</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1071</v>
+        <v>1250</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44442</v>
+        <v>44302</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44363</v>
+        <v>44300</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44298</v>
+        <v>44365</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44312</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>22000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44299</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44529</v>
+        <v>44263</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44620</v>
+        <v>44431</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44431</v>
+        <v>44298</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
         <v>24000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44305</v>
+        <v>44424</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N39" t="n">
         <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44300</v>
+        <v>44417</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44356</v>
+        <v>44830</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44613</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44445</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44529</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44830</v>
+        <v>44620</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44350</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>21556</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1078</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44357</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44284</v>
+        <v>44302</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44438</v>
+        <v>44452</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
         <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>21429</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44165</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44613</v>
+        <v>44354</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44165</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44410</v>
+        <v>44363</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44270</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44263</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44302</v>
+        <v>44435</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44350</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
         <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>21556</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44424</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>24429</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1221</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44452</v>
+        <v>44263</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>21429</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1071</v>
+        <v>750</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44442</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44363</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
         <v>19000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44417</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44760</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44529</v>
+        <v>44365</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44620</v>
+        <v>44356</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44166</v>
+        <v>44372</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>20667</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>1033</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44431</v>
+        <v>44298</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44355</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44305</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44417</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44300</v>
+        <v>44284</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P41" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44830</v>
+        <v>44356</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44613</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44365</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44529</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44620</v>
+        <v>44830</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>21556</v>
+        <v>24500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1078</v>
+        <v>1225</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44357</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O12" t="n">
         <v>20000</v>
       </c>
-      <c r="O12" t="n">
-        <v>21000</v>
-      </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44302</v>
+        <v>44284</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44452</v>
+        <v>44438</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
         <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>21429</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44165</v>
+        <v>44354</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1075</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44613</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44165</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44410</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44270</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44263</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44350</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
         <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44424</v>
+        <v>44522</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>24429</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1221</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44263</v>
+        <v>44452</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>21429</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>750</v>
+        <v>1071</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44442</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44363</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N29" t="n">
         <v>19000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44760</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44529</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44620</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44372</v>
+        <v>44166</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>20667</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1033</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44298</v>
+        <v>44431</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44305</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44284</v>
+        <v>44300</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44830</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44270</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44438</v>
+        <v>44396</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44613</v>
+        <v>44165</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>21429</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44442</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44529</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44620</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44760</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>21556</v>
+        <v>24500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1078</v>
+        <v>1225</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44302</v>
+        <v>44620</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P14" t="n">
-        <v>21429</v>
+        <v>23000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44165</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44830</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44363</v>
+        <v>44613</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
         <v>24000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44435</v>
+        <v>44312</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44424</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44424</v>
+        <v>44357</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44263</v>
+        <v>44365</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>750</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44263</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44300</v>
+        <v>44410</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>21556</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1078</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44760</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44277</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P32" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44372</v>
+        <v>44473</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44298</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44302</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O38" t="n">
         <v>20000</v>
       </c>
-      <c r="O38" t="n">
-        <v>21000</v>
-      </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P41" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44452</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44270</v>
+        <v>44431</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44396</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44165</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44165</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>21429</v>
+        <v>27500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1071</v>
+        <v>1375</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44442</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44438</v>
+        <v>44356</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
         <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44442</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44760</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44363</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
         <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44620</v>
+        <v>44372</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44365</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44431</v>
+        <v>44263</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44830</v>
+        <v>44302</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44372</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20667</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44613</v>
+        <v>44357</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44299</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44312</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44424</v>
+        <v>44760</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
         <v>24000</v>
@@ -2293,7 +2293,7 @@
         <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>24429</v>
+        <v>24500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44357</v>
+        <v>44613</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44365</v>
+        <v>44445</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
         <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="N27" t="n">
         <v>28000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44263</v>
+        <v>44298</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44410</v>
+        <v>44300</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44620</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
         <v>22000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44354</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
         <v>24000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44302</v>
+        <v>44830</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44300</v>
+        <v>44363</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
         <v>22000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44438</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44382</v>
+        <v>44270</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44452</v>
+        <v>44270</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>25000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44431</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44263</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1150</v>
+        <v>750</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44165</v>
+        <v>44620</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44830</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44356</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44442</v>
+        <v>44357</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
         <v>21000</v>
@@ -1253,7 +1253,7 @@
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>21556</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44372</v>
+        <v>44356</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1413,7 +1413,7 @@
         <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>20667</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44365</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P15" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44263</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44302</v>
+        <v>44166</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44417</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44357</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
@@ -1973,7 +1973,7 @@
         <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>20500</v>
+        <v>20667</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44522</v>
+        <v>44302</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44299</v>
+        <v>44424</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>24429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1221</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44445</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44760</v>
+        <v>44299</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1225</v>
+        <v>975</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44613</v>
+        <v>44363</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44333</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44298</v>
+        <v>44354</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1075</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44300</v>
+        <v>44438</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
         <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>24429</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1221</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44620</v>
+        <v>44452</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
         <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44410</v>
+        <v>44442</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="N33" t="n">
         <v>28000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
         <v>19000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44760</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
         <v>24000</v>
       </c>
       <c r="O36" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44830</v>
+        <v>44355</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44363</v>
+        <v>44165</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P38" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44396</v>
+        <v>44365</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O40" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P40" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44270</v>
+        <v>44613</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1050</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44263</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44620</v>
+        <v>44300</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44830</v>
+        <v>44620</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44522</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44357</v>
+        <v>44442</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44830</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44372</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>20667</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44166</v>
+        <v>44452</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>21429</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1400</v>
+        <v>1071</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20667</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1033</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44302</v>
+        <v>44382</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
         <v>19000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44424</v>
+        <v>44350</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>24429</v>
+        <v>21556</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1221</v>
+        <v>1078</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44299</v>
+        <v>44445</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
         <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44363</v>
+        <v>44613</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1075</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44333</v>
+        <v>44356</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44354</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44438</v>
+        <v>44365</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
         <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44298</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44452</v>
+        <v>44357</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O31" t="n">
         <v>21000</v>
       </c>
-      <c r="O31" t="n">
-        <v>22000</v>
-      </c>
       <c r="P31" t="n">
-        <v>21429</v>
+        <v>20500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1071</v>
+        <v>1025</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44165</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>27500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44312</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44760</v>
+        <v>44410</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
         <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1225</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44355</v>
+        <v>44263</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44165</v>
+        <v>44355</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>1025</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44365</v>
+        <v>44760</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1025</v>
+        <v>1225</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44613</v>
+        <v>44354</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>20667</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1150</v>
+        <v>1033</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44830</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44438</v>
+        <v>44365</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
         <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44300</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44620</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44442</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44830</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44442</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44613</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44363</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>24429</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1221</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
         <v>24000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44372</v>
+        <v>44300</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O16" t="n">
         <v>20000</v>
       </c>
-      <c r="O16" t="n">
-        <v>21000</v>
-      </c>
       <c r="P16" t="n">
-        <v>20667</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1033</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44452</v>
+        <v>44529</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>21429</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1071</v>
+        <v>1400</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44396</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44166</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44165</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O23" t="n">
         <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44445</v>
+        <v>44270</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44613</v>
+        <v>44363</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44302</v>
+        <v>44284</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44356</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>20500</v>
+        <v>21556</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44620</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44365</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O29" t="n">
         <v>20000</v>
       </c>
-      <c r="O29" t="n">
-        <v>21000</v>
-      </c>
       <c r="P29" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44357</v>
+        <v>44452</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>20500</v>
+        <v>21429</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44165</v>
+        <v>44445</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>27500</v>
+        <v>20000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44312</v>
+        <v>44417</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44410</v>
+        <v>44760</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
         <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44263</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44355</v>
+        <v>44431</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1025</v>
+        <v>1250</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44760</v>
+        <v>44312</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44263</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
         <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>45243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44442</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44613</v>
+        <v>44442</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44613</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>24429</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1221</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N16" t="n">
         <v>19000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44529</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44529</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44166</v>
+        <v>44438</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44302</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44165</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>27500</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1375</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44270</v>
+        <v>44165</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O24" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44284</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>23000</v>
+        <v>21500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1150</v>
+        <v>1075</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44284</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P27" t="n">
-        <v>21556</v>
+        <v>23000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44620</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
         <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44620</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44452</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>20000</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44417</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44354</v>
+        <v>44417</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
         <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44760</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44760</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1225</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44431</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44312</v>
+        <v>44431</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44263</v>
+        <v>44312</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,68 +3607,148 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>150</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>750</v>
+      </c>
+      <c r="T41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="E41" t="n">
-        <v>13</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>30</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N42" t="n">
         <v>22000</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O42" t="n">
         <v>22000</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>22000</v>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
         <v>1100</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T42" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>20667</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1033</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44830</v>
+        <v>44529</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44298</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N5" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O5" t="n">
         <v>20000</v>
       </c>
-      <c r="O5" t="n">
-        <v>21000</v>
-      </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20667</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1033</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O7" t="n">
         <v>20000</v>
       </c>
-      <c r="O7" t="n">
-        <v>21000</v>
-      </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>44620</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45243</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44277</v>
+        <v>44302</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44356</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44442</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44613</v>
+        <v>44830</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44424</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>24429</v>
+        <v>20500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1221</v>
+        <v>1025</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44365</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44350</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>21556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44431</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44529</v>
+        <v>44263</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44165</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>27500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44452</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>21429</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>1071</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44165</v>
+        <v>44438</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>27500</v>
+        <v>21000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1375</v>
+        <v>1050</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44270</v>
+        <v>44357</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44760</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44284</v>
+        <v>44300</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1150</v>
+        <v>975</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
         <v>21000</v>
@@ -2613,7 +2613,7 @@
         <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>21556</v>
+        <v>21500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44620</v>
+        <v>44613</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44442</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P32" t="n">
-        <v>21429</v>
+        <v>23000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>45243</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
         <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>24429</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1075</v>
+        <v>1250</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44522</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44760</v>
+        <v>44312</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44431</v>
+        <v>44277</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
         <v>22000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44263</v>
+        <v>44363</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>750</v>
+        <v>1075</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44372</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>20667</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1033</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44529</v>
+        <v>44830</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44356</v>
+        <v>44365</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20667</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44620</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>45243</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44356</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44442</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44830</v>
+        <v>44613</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44424</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>24429</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1221</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44365</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>21556</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1078</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44263</v>
+        <v>44529</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44165</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44452</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>21429</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1071</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44302</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44438</v>
+        <v>44165</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1050</v>
+        <v>1375</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44357</v>
+        <v>44270</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44760</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44300</v>
+        <v>44284</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1150</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
         <v>21000</v>
@@ -2613,7 +2613,7 @@
         <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>21556</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44442</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44284</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>23000</v>
+        <v>21429</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1150</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45243</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
         <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>24429</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1221</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44522</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44312</v>
+        <v>44760</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44431</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44396</v>
+        <v>44312</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>22000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>21500</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1075</v>
+        <v>750</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44333</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T42" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44620</v>
+        <v>45250</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44620</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44302</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44302</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
         <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44445</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
         <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44830</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>975</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44830</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44365</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1025</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P17" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44431</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>21556</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44263</v>
+        <v>44431</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44165</v>
+        <v>44263</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>27500</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1375</v>
+        <v>750</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44165</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44452</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P22" t="n">
-        <v>21429</v>
+        <v>24000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
         <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>22000</v>
+        <v>21429</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44438</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P24" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44357</v>
+        <v>44438</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
         <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44760</v>
+        <v>44357</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1225</v>
+        <v>1025</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44300</v>
+        <v>44760</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>975</v>
+        <v>1225</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44354</v>
+        <v>44300</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1075</v>
+        <v>975</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44613</v>
+        <v>44354</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>1075</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44442</v>
+        <v>44613</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44442</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
         <v>22000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45243</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44424</v>
+        <v>45243</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O35" t="n">
         <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>24429</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44522</v>
+        <v>44410</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44312</v>
+        <v>44522</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O38" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P38" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
         <v>24000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44363</v>
+        <v>44396</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N41" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O41" t="n">
         <v>22000</v>
       </c>
       <c r="P41" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,68 +3687,148 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>150</v>
+      </c>
+      <c r="N42" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E42" t="n">
-        <v>13</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>60</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N43" t="n">
         <v>25000</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O43" t="n">
         <v>25000</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P43" t="n">
         <v>25000</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
         <v>1250</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T43" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>45258</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45243</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44424</v>
+        <v>45243</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N35" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O36" t="n">
         <v>25000</v>
       </c>
       <c r="P36" t="n">
-        <v>25000</v>
+        <v>24429</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44522</v>
+        <v>44410</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44312</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44270</v>
+        <v>44312</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P39" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
         <v>24000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44363</v>
+        <v>44396</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N42" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O42" t="n">
         <v>22000</v>
       </c>
       <c r="P42" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T42" t="n">
         <v>20</v>
@@ -3767,68 +3767,148 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>150</v>
+      </c>
+      <c r="N43" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="E43" t="n">
-        <v>13</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>100108007</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>60</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N44" t="n">
         <v>25000</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O44" t="n">
         <v>25000</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P44" t="n">
         <v>25000</v>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>$/malla 20 unidades</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
         <v>1250</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T44" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44356</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44613</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>975</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20667</v>
+        <v>21556</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1033</v>
+        <v>1078</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>45258</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45250</v>
+        <v>44302</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>975</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44620</v>
+        <v>44760</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1225</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44442</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44302</v>
+        <v>44396</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44357</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44830</v>
+        <v>44365</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44263</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44424</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>21556</v>
+        <v>24429</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1078</v>
+        <v>1221</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>21429</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1071</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44263</v>
+        <v>44299</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44165</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1375</v>
+        <v>1150</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44522</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44452</v>
+        <v>44372</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O23" t="n">
         <v>21000</v>
       </c>
-      <c r="O23" t="n">
-        <v>22000</v>
-      </c>
       <c r="P23" t="n">
-        <v>21429</v>
+        <v>20667</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44357</v>
+        <v>45243</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P26" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44760</v>
+        <v>44417</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
         <v>24000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P27" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>20</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44300</v>
+        <v>44431</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>975</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
         <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44613</v>
+        <v>44356</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>20500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1500</v>
+        <v>1025</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44442</v>
+        <v>44270</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45258</v>
+        <v>44363</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>1075</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>45250</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O34" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P34" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45243</v>
+        <v>44333</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
         <v>22000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44424</v>
+        <v>44620</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O36" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P36" t="n">
-        <v>24429</v>
+        <v>22000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>20</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44410</v>
+        <v>44830</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44165</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1375</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N39" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P39" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="T39" t="n">
         <v>20</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44270</v>
+        <v>44354</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N40" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1075</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44396</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P42" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T42" t="n">
         <v>20</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44363</v>
+        <v>44312</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O43" t="n">
         <v>22000</v>
       </c>
       <c r="P43" t="n">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="T43" t="n">
         <v>20</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44435</v>
+        <v>44298</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1250</v>
+        <v>975</v>
       </c>
       <c r="T44" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44445</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44452</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>21429</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44613</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44350</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>21556</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1078</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45258</v>
+        <v>44396</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44302</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>19000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44760</v>
+        <v>44442</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1225</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44442</v>
+        <v>44350</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>21556</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44396</v>
+        <v>44357</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44357</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44365</v>
+        <v>45243</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44263</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44263</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44424</v>
+        <v>44165</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>24429</v>
+        <v>27500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1221</v>
+        <v>1375</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44298</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21429</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1071</v>
+        <v>975</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44299</v>
+        <v>44620</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44365</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>20500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1150</v>
+        <v>1025</v>
       </c>
       <c r="T21" t="n">
         <v>20</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>20</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44372</v>
+        <v>44760</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>20667</v>
+        <v>24500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1033</v>
+        <v>1225</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>20</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>975</v>
+        <v>1050</v>
       </c>
       <c r="T25" t="n">
         <v>20</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45243</v>
+        <v>44830</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>20</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
         <v>24000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44431</v>
+        <v>44356</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="T28" t="n">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44438</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="T29" t="n">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44356</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P30" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1025</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44270</v>
+        <v>44613</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="n">
         <v>20</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44363</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P32" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>20</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45250</v>
+        <v>44363</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>1075</v>
       </c>
       <c r="T33" t="n">
         <v>20</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T34" t="n">
         <v>20</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44333</v>
+        <v>44372</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>20667</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1033</v>
       </c>
       <c r="T35" t="n">
         <v>20</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44620</v>
+        <v>44312</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
         <v>22000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44830</v>
+        <v>44284</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="T37" t="n">
         <v>20</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44165</v>
+        <v>44445</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="O38" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P38" t="n">
-        <v>27500</v>
+        <v>20000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1375</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
         <v>19000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44354</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O40" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P40" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1075</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>20</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44410</v>
+        <v>45250</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T41" t="n">
         <v>20</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44354</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N42" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O42" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P42" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1250</v>
+        <v>1075</v>
       </c>
       <c r="T42" t="n">
         <v>20</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44312</v>
+        <v>44424</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O43" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>22000</v>
+        <v>24429</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1100</v>
+        <v>1221</v>
       </c>
       <c r="T43" t="n">
         <v>20</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44298</v>
+        <v>45258</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N44" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>975</v>
+        <v>1400</v>
       </c>
       <c r="T44" t="n">
         <v>20</v>
